--- a/可视化学习/第二周/作业.xlsx
+++ b/可视化学习/第二周/作业.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git-Item\item\可视化学习\第二周\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BA002C1-B075-4389-A970-1E867DCC4114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D5D8E2-E038-4E92-B24D-E35C937C1134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,20 +18,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">比例数据!$A$3:$B$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">比例数据!$B$2</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">比例数据!$D$1:$D$2</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">比例数据!$D$3:$D$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">比例数据!$C$1:$C$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">比例数据!$C$3:$C$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">比例数据!$D$1:$D$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">比例数据!$D$2</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">比例数据!$D$3:$D$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">比例数据!$A$3:$B$7</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">比例数据!$C$1:$C$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">比例数据!$C$3:$C$7</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">比例数据!$C$1:$C$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">比例数据!$C$3:$C$7</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">比例数据!$D$1:$D$2</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">比例数据!$D$3:$D$7</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>场景1:某电商公司2018年销售额趋势</t>
   </si>
@@ -176,13 +168,53 @@
     <t>问题3:
 展示某日，该快递公司的寄件单的揽收时效分布及其占比情况，应该使用什么图表？</t>
   </si>
+  <si>
+    <t>场景4:主流快递公司承运量流向分布</t>
+  </si>
+  <si>
+    <t>快递公司</t>
+  </si>
+  <si>
+    <t>省外件</t>
+  </si>
+  <si>
+    <t>省内非同城件</t>
+  </si>
+  <si>
+    <t>省内同城件</t>
+  </si>
+  <si>
+    <t>总承运量</t>
+  </si>
+  <si>
+    <t>顺丰</t>
+  </si>
+  <si>
+    <t>中通</t>
+  </si>
+  <si>
+    <t>圆通</t>
+  </si>
+  <si>
+    <t>申通</t>
+  </si>
+  <si>
+    <t>韵达</t>
+  </si>
+  <si>
+    <t>EMS</t>
+  </si>
+  <si>
+    <t>问题4:
+既要对比同一公司内部，不同流向的包裹的承运量占比；又想对比不同快递公司之间，同一流向的包裹承运量的占比差异，应该用什么图表？</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="#,##0_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -267,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -293,6 +325,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -301,18 +348,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2056,6 +2091,610 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>主流快递公司承运流向分布</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>比例数据!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>省外件</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>比例数据!$A$37:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>顺丰</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>中通</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>圆通</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>申通</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>韵达</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EMS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>比例数据!$B$37:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8BF0-4317-9D12-53ED6064298E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>比例数据!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>省内非同城件</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>比例数据!$A$37:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>顺丰</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>中通</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>圆通</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>申通</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>韵达</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EMS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>比例数据!$C$37:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8BF0-4317-9D12-53ED6064298E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>比例数据!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>省内同城件</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>比例数据!$A$37:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>顺丰</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>中通</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>圆通</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>申通</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>韵达</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EMS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>比例数据!$D$37:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8BF0-4317-9D12-53ED6064298E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>比例数据!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>省内同城件</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>比例数据!$A$37:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>顺丰</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>中通</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>圆通</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>申通</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>韵达</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EMS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>比例数据!$E$37:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8BF0-4317-9D12-53ED6064298E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="768070624"/>
+        <c:axId val="767839688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="768070624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767839688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="767839688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="768070624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -2064,7 +2703,7 @@
         <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
@@ -2072,7 +2711,7 @@
         <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2111,7 +2750,7 @@
         <cx:series layoutId="treemap" uniqueId="{56FDDF2C-9AC9-45B1-B422-4FCEFEA7F5A3}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>揽件量</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2133,7 +2772,7 @@
         <cx:series layoutId="treemap" hidden="1" uniqueId="{99B6D847-6006-4BFA-9CCC-5DE5FD392C07}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>揽件量占比</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2272,6 +2911,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -3861,6 +4540,511 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4022,6 +5206,42 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C751448-4141-4D3F-A3C4-5C4C3187A86A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4304,20 +5524,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="J1" s="9" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
@@ -4754,17 +5974,17 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
       <c r="J16" s="7">
         <v>43752</v>
       </c>
@@ -4776,13 +5996,13 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
       <c r="J17" s="7">
         <v>43753</v>
       </c>
@@ -5002,38 +6222,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE88D24C-3C0E-4EAA-B46D-91628133DC37}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5044,10 +6264,10 @@
       <c r="B3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>1000000</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="11">
         <v>0.68030000000000002</v>
       </c>
     </row>
@@ -5058,10 +6278,10 @@
       <c r="B4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>300000</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="11">
         <v>0.2041</v>
       </c>
     </row>
@@ -5072,10 +6292,10 @@
       <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>100000</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="11">
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
@@ -5086,10 +6306,10 @@
       <c r="B6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>50000</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="11">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
@@ -5097,31 +6317,171 @@
       <c r="A7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>20000</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="11">
         <v>1.3599999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="10">
+        <v>2100</v>
+      </c>
+      <c r="C37" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D37" s="10">
+        <v>500</v>
+      </c>
+      <c r="E37" s="10">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="10">
+        <v>1800</v>
+      </c>
+      <c r="C38" s="10">
+        <v>900</v>
+      </c>
+      <c r="D38" s="10">
+        <v>800</v>
+      </c>
+      <c r="E38" s="10">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="10">
+        <v>1900</v>
+      </c>
+      <c r="C39" s="10">
+        <v>700</v>
+      </c>
+      <c r="D39" s="10">
+        <v>700</v>
+      </c>
+      <c r="E39" s="10">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="10">
+        <v>1700</v>
+      </c>
+      <c r="C40" s="10">
+        <v>700</v>
+      </c>
+      <c r="D40" s="10">
+        <v>700</v>
+      </c>
+      <c r="E40" s="10">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="10">
+        <v>1300</v>
+      </c>
+      <c r="C41" s="10">
+        <v>900</v>
+      </c>
+      <c r="D41" s="10">
+        <v>700</v>
+      </c>
+      <c r="E41" s="10">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="10">
+        <v>1900</v>
+      </c>
+      <c r="C42" s="10">
+        <v>600</v>
+      </c>
+      <c r="D42" s="10">
+        <v>200</v>
+      </c>
+      <c r="E42" s="10">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="36" customHeight="1">
+      <c r="A43" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A43:E43"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>